--- a/Code/Results/Cases/Case_5_70/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_70/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.63020791406874</v>
+        <v>10.06655267360758</v>
       </c>
       <c r="C2">
-        <v>8.260820657988074</v>
+        <v>5.270437362646262</v>
       </c>
       <c r="D2">
-        <v>7.794185893496437</v>
+        <v>9.193505539851932</v>
       </c>
       <c r="E2">
-        <v>11.15304156053036</v>
+        <v>13.69638693630308</v>
       </c>
       <c r="F2">
-        <v>22.87713876475276</v>
+        <v>33.17022212974818</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>14.35038363722153</v>
+        <v>22.91223486194537</v>
       </c>
       <c r="J2">
-        <v>6.384337137486004</v>
+        <v>9.952164006458259</v>
       </c>
       <c r="K2">
-        <v>12.35640382866571</v>
+        <v>10.24193201029323</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.12630923223816</v>
+        <v>25.08334463714856</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.76083470861916</v>
+        <v>9.754891060528777</v>
       </c>
       <c r="C3">
-        <v>7.748526962107858</v>
+        <v>5.048455835676679</v>
       </c>
       <c r="D3">
-        <v>7.395809005983464</v>
+        <v>9.122094076288214</v>
       </c>
       <c r="E3">
-        <v>10.65990308111771</v>
+        <v>13.62785279992243</v>
       </c>
       <c r="F3">
-        <v>22.63661742360715</v>
+        <v>33.24478385495913</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>14.57081975649562</v>
+        <v>23.01950234982142</v>
       </c>
       <c r="J3">
-        <v>6.280198825206046</v>
+        <v>9.959068111991913</v>
       </c>
       <c r="K3">
-        <v>11.6295537588746</v>
+        <v>10.02936680492359</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.19963507557133</v>
+        <v>25.17842383260056</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.19628080059217</v>
+        <v>9.559559341184421</v>
       </c>
       <c r="C4">
-        <v>7.416533335833124</v>
+        <v>4.90745107283668</v>
       </c>
       <c r="D4">
-        <v>7.142909936230871</v>
+        <v>9.079538283194486</v>
       </c>
       <c r="E4">
-        <v>10.35132120189573</v>
+        <v>13.58844026337651</v>
       </c>
       <c r="F4">
-        <v>22.50881389786871</v>
+        <v>33.29856291471738</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>14.71692394940401</v>
+        <v>23.08975856074216</v>
       </c>
       <c r="J4">
-        <v>6.218889491675298</v>
+        <v>9.964876781477788</v>
       </c>
       <c r="K4">
-        <v>11.15943871932123</v>
+        <v>9.897778754030908</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.25910831047845</v>
+        <v>25.2420919059431</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.95847912949164</v>
+        <v>9.479081855602804</v>
       </c>
       <c r="C5">
-        <v>7.276865174430087</v>
+        <v>4.848885965622329</v>
       </c>
       <c r="D5">
-        <v>7.037887642048029</v>
+        <v>9.062536574309602</v>
       </c>
       <c r="E5">
-        <v>10.22429714362037</v>
+        <v>13.57306317562707</v>
       </c>
       <c r="F5">
-        <v>22.46163111860147</v>
+        <v>33.32248484553276</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>14.77906184365066</v>
+        <v>23.11949309941544</v>
       </c>
       <c r="J5">
-        <v>6.194580776716466</v>
+        <v>9.967638875806639</v>
       </c>
       <c r="K5">
-        <v>10.96191446528958</v>
+        <v>9.843956709547026</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.28682223007045</v>
+        <v>25.26936480419921</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.91852473529859</v>
+        <v>9.465669276293486</v>
       </c>
       <c r="C6">
-        <v>7.25340936283828</v>
+        <v>4.839097078100608</v>
       </c>
       <c r="D6">
-        <v>7.020334142350568</v>
+        <v>9.059734436339079</v>
       </c>
       <c r="E6">
-        <v>10.20313371115357</v>
+        <v>13.57055148619587</v>
       </c>
       <c r="F6">
-        <v>22.45408909107114</v>
+        <v>33.32657810903486</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>14.78953387251149</v>
+        <v>23.12449720394243</v>
       </c>
       <c r="J6">
-        <v>6.190585486493962</v>
+        <v>9.96812138542761</v>
       </c>
       <c r="K6">
-        <v>10.92875801491645</v>
+        <v>9.835009701338864</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.29162968723455</v>
+        <v>25.27397356552115</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.19310507250182</v>
+        <v>9.558477384161737</v>
       </c>
       <c r="C7">
-        <v>7.41466743198351</v>
+        <v>4.906665603393836</v>
       </c>
       <c r="D7">
-        <v>7.141501343693382</v>
+        <v>9.079307595065297</v>
       </c>
       <c r="E7">
-        <v>10.34961301298582</v>
+        <v>13.58823009723874</v>
       </c>
       <c r="F7">
-        <v>22.5081578844072</v>
+        <v>33.29887741635697</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>14.71775157113362</v>
+        <v>23.09015509908144</v>
       </c>
       <c r="J7">
-        <v>6.218558904688027</v>
+        <v>9.964912432268781</v>
       </c>
       <c r="K7">
-        <v>11.15679885509132</v>
+        <v>9.89705360111598</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.25946819062586</v>
+        <v>25.24245434534609</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.33682390944144</v>
+        <v>9.959985004558247</v>
       </c>
       <c r="C8">
-        <v>8.087804516310779</v>
+        <v>5.19491949056357</v>
       </c>
       <c r="D8">
-        <v>7.65861346180789</v>
+        <v>9.168624334731103</v>
       </c>
       <c r="E8">
-        <v>10.98431172163427</v>
+        <v>13.67221078280905</v>
       </c>
       <c r="F8">
-        <v>22.79002548335555</v>
+        <v>33.19426843697972</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>14.42409151495067</v>
+        <v>22.94830866967538</v>
       </c>
       <c r="J8">
-        <v>6.347892475529457</v>
+        <v>9.954219023890143</v>
       </c>
       <c r="K8">
-        <v>12.11075167157437</v>
+        <v>10.16890378237207</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.14849805003448</v>
+        <v>25.11502880654696</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.33641194893651</v>
+        <v>10.71102946378259</v>
       </c>
       <c r="C9">
-        <v>9.269464872700022</v>
+        <v>5.71985281713954</v>
       </c>
       <c r="D9">
-        <v>8.602550823375259</v>
+        <v>9.35331483096676</v>
       </c>
       <c r="E9">
-        <v>12.17619213307982</v>
+        <v>13.85744888539973</v>
       </c>
       <c r="F9">
-        <v>23.50426036688656</v>
+        <v>33.05277596353512</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>13.93878492649929</v>
+        <v>22.7050192566066</v>
       </c>
       <c r="J9">
-        <v>6.621756223560549</v>
+        <v>9.945684373866907</v>
       </c>
       <c r="K9">
-        <v>13.79131182166499</v>
+        <v>10.69051175024294</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.05266221489723</v>
+        <v>24.90721715727799</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.65881478285518</v>
+        <v>11.23490512677165</v>
       </c>
       <c r="C10">
-        <v>10.0538207692231</v>
+        <v>6.077566056409397</v>
       </c>
       <c r="D10">
-        <v>9.24882618263678</v>
+        <v>9.493850490543325</v>
       </c>
       <c r="E10">
-        <v>13.01222409876548</v>
+        <v>14.00519182248768</v>
       </c>
       <c r="F10">
-        <v>24.13168644861076</v>
+        <v>32.98784597866941</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>13.64543995469682</v>
+        <v>22.5475469721805</v>
       </c>
       <c r="J10">
-        <v>6.834414229449703</v>
+        <v>9.9469653252693</v>
       </c>
       <c r="K10">
-        <v>14.90956659180235</v>
+        <v>11.06294533393313</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.06640078817416</v>
+        <v>24.78032356280901</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.22900950881297</v>
+        <v>11.46612981514399</v>
       </c>
       <c r="C11">
-        <v>10.39266679668963</v>
+        <v>6.23367511151528</v>
       </c>
       <c r="D11">
-        <v>9.531941306032452</v>
+        <v>9.558621904290014</v>
       </c>
       <c r="E11">
-        <v>13.38279727606633</v>
+        <v>14.07472974900863</v>
       </c>
       <c r="F11">
-        <v>24.4400704787858</v>
+        <v>32.96681784052326</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>13.52771219189664</v>
+        <v>22.48053195891932</v>
       </c>
       <c r="J11">
-        <v>6.93345628933694</v>
+        <v>9.949179269264361</v>
       </c>
       <c r="K11">
-        <v>15.39309663917364</v>
+        <v>11.22929621004412</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.09308234658177</v>
+        <v>24.72822453086924</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.44045761326372</v>
+        <v>11.5525944584967</v>
       </c>
       <c r="C12">
-        <v>10.51841889000821</v>
+        <v>6.291800860592402</v>
       </c>
       <c r="D12">
-        <v>9.637549001757934</v>
+        <v>9.583251850736747</v>
       </c>
       <c r="E12">
-        <v>13.52165198701265</v>
+        <v>14.10137870078064</v>
       </c>
       <c r="F12">
-        <v>24.56018846666353</v>
+        <v>32.96008050384062</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>13.48557757607394</v>
+        <v>22.45582003356613</v>
       </c>
       <c r="J12">
-        <v>6.971277009578716</v>
+        <v>9.950251258860973</v>
       </c>
       <c r="K12">
-        <v>15.57259439859501</v>
+        <v>11.29179090915403</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.10630226023157</v>
+        <v>24.70930729869433</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.39511672130408</v>
+        <v>11.53402257552918</v>
       </c>
       <c r="C13">
-        <v>10.49144947449894</v>
+        <v>6.27932698512241</v>
       </c>
       <c r="D13">
-        <v>9.614876218840173</v>
+        <v>9.577943091524189</v>
       </c>
       <c r="E13">
-        <v>13.49181363579125</v>
+        <v>14.09562559754217</v>
       </c>
       <c r="F13">
-        <v>24.53416985742415</v>
+        <v>32.96147697770386</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>13.49454007555221</v>
+        <v>22.46111258924813</v>
       </c>
       <c r="J13">
-        <v>6.963117835402419</v>
+        <v>9.950010012993699</v>
       </c>
       <c r="K13">
-        <v>15.5340963521397</v>
+        <v>11.27835460998392</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.10331369019224</v>
+        <v>24.7133453288598</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.2464948644926</v>
+        <v>11.47326566605264</v>
       </c>
       <c r="C14">
-        <v>10.40306369940589</v>
+        <v>6.238477176776802</v>
       </c>
       <c r="D14">
-        <v>9.540661994122949</v>
+        <v>9.560646278498673</v>
       </c>
       <c r="E14">
-        <v>13.39425081726286</v>
+        <v>14.07691593980333</v>
       </c>
       <c r="F14">
-        <v>24.44988553791401</v>
+        <v>32.96623898453694</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>13.52419559770543</v>
+        <v>22.47848555707295</v>
       </c>
       <c r="J14">
-        <v>6.93656158102235</v>
+        <v>9.949262786345065</v>
       </c>
       <c r="K14">
-        <v>15.40793616033401</v>
+        <v>11.23444799646943</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.09410648488273</v>
+        <v>24.72665191962943</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.15487849292365</v>
+        <v>11.43590557921996</v>
       </c>
       <c r="C15">
-        <v>10.34859196534975</v>
+        <v>6.213325619437503</v>
       </c>
       <c r="D15">
-        <v>9.494994104655879</v>
+        <v>9.550064268146594</v>
       </c>
       <c r="E15">
-        <v>13.3342970526395</v>
+        <v>14.0654963883063</v>
       </c>
       <c r="F15">
-        <v>24.39869486400972</v>
+        <v>32.96931550392762</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>13.54268485663725</v>
+        <v>22.48921365759119</v>
       </c>
       <c r="J15">
-        <v>6.920335775901747</v>
+        <v>9.948835481953559</v>
       </c>
       <c r="K15">
-        <v>15.3301905320095</v>
+        <v>11.20748734218701</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.08887790596307</v>
+        <v>24.73490835339014</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.62092316746197</v>
+        <v>11.21964473736893</v>
       </c>
       <c r="C16">
-        <v>10.03131669049244</v>
+        <v>6.067227445526068</v>
       </c>
       <c r="D16">
-        <v>9.230101573291224</v>
+        <v>9.489632868492686</v>
       </c>
       <c r="E16">
-        <v>12.98780364503463</v>
+        <v>14.0006926550553</v>
       </c>
       <c r="F16">
-        <v>24.11199830167474</v>
+        <v>32.98939162259336</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>13.65346555138066</v>
+        <v>22.55201959834846</v>
       </c>
       <c r="J16">
-        <v>6.827986584019544</v>
+        <v>9.94685338476561</v>
       </c>
       <c r="K16">
-        <v>14.87746139611991</v>
+        <v>11.05200714348522</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.06508345681913</v>
+        <v>24.78384178015087</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.28535008551709</v>
+        <v>11.08510351968689</v>
       </c>
       <c r="C17">
-        <v>9.832092205272099</v>
+        <v>5.975877426722946</v>
       </c>
       <c r="D17">
-        <v>9.064781985917984</v>
+        <v>9.452762420166385</v>
       </c>
       <c r="E17">
-        <v>12.77268886392767</v>
+        <v>13.96152121104679</v>
       </c>
       <c r="F17">
-        <v>23.94203012783915</v>
+        <v>33.00388861992102</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>13.72557870911394</v>
+        <v>22.59173288036369</v>
       </c>
       <c r="J17">
-        <v>6.771911762238016</v>
+        <v>9.946054591146575</v>
       </c>
       <c r="K17">
-        <v>14.59328850363802</v>
+        <v>10.95579664484885</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.05584618060759</v>
+        <v>24.81530354679398</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.08938175112383</v>
+        <v>11.00705570513319</v>
       </c>
       <c r="C18">
-        <v>9.715811419306561</v>
+        <v>5.922714400962869</v>
       </c>
       <c r="D18">
-        <v>8.968672047770635</v>
+        <v>9.431635791944146</v>
       </c>
       <c r="E18">
-        <v>12.64804673594834</v>
+        <v>13.93921118410238</v>
       </c>
       <c r="F18">
-        <v>23.84642881958347</v>
+        <v>33.01302772246023</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>13.76852345292149</v>
+        <v>22.61500970308259</v>
       </c>
       <c r="J18">
-        <v>6.739876633444977</v>
+        <v>9.94574875017927</v>
       </c>
       <c r="K18">
-        <v>14.42746933248172</v>
+        <v>10.90017303047828</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.05244561331222</v>
+        <v>24.83392886955228</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.02252149026683</v>
+        <v>10.98051858394347</v>
       </c>
       <c r="C19">
-        <v>9.676149529972461</v>
+        <v>5.904608924610306</v>
       </c>
       <c r="D19">
-        <v>8.935956588660646</v>
+        <v>9.42449702960071</v>
       </c>
       <c r="E19">
-        <v>12.60569060329589</v>
+        <v>13.9316957908078</v>
       </c>
       <c r="F19">
-        <v>23.81442955794324</v>
+        <v>33.01625953431844</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>13.78331037942073</v>
+        <v>22.62296548596984</v>
       </c>
       <c r="J19">
-        <v>6.729067958638925</v>
+        <v>9.945671606346032</v>
       </c>
       <c r="K19">
-        <v>14.37091834726438</v>
+        <v>10.88129253383486</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.05161727820182</v>
+        <v>24.84032591946333</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.32137803247336</v>
+        <v>11.09949488225773</v>
       </c>
       <c r="C20">
-        <v>9.853474978391432</v>
+        <v>5.985666347416675</v>
       </c>
       <c r="D20">
-        <v>9.082486668374285</v>
+        <v>9.456679167766913</v>
       </c>
       <c r="E20">
-        <v>12.79568335411802</v>
+        <v>13.96566840445379</v>
       </c>
       <c r="F20">
-        <v>23.95989969547297</v>
+        <v>33.0022624920574</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>13.71774899667677</v>
+        <v>22.58746032809987</v>
       </c>
       <c r="J20">
-        <v>6.777858615600596</v>
+        <v>9.946123733168118</v>
       </c>
       <c r="K20">
-        <v>14.62378443904124</v>
+        <v>10.96606843026927</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.05663028008746</v>
+        <v>24.81189958358443</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.29026975126897</v>
+        <v>11.49114172752392</v>
       </c>
       <c r="C21">
-        <v>10.42909407594561</v>
+        <v>6.250502880188249</v>
       </c>
       <c r="D21">
-        <v>9.56250422930581</v>
+        <v>9.565724140072327</v>
       </c>
       <c r="E21">
-        <v>13.42294785849103</v>
+        <v>14.08240298119606</v>
       </c>
       <c r="F21">
-        <v>24.4745509863752</v>
+        <v>32.96480699356679</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>13.5154170926047</v>
+        <v>22.47336463462053</v>
       </c>
       <c r="J21">
-        <v>6.94435334737925</v>
+        <v>9.949475932815336</v>
       </c>
       <c r="K21">
-        <v>15.44509014277081</v>
+        <v>11.24735840623868</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.09672487418774</v>
+        <v>24.72272140595803</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.89744958294226</v>
+        <v>11.7406928870684</v>
       </c>
       <c r="C22">
-        <v>10.79037618817822</v>
+        <v>6.417808458406126</v>
       </c>
       <c r="D22">
-        <v>9.866876691730853</v>
+        <v>9.637579688883022</v>
       </c>
       <c r="E22">
-        <v>13.82429226761736</v>
+        <v>14.16053135803728</v>
       </c>
       <c r="F22">
-        <v>24.83038418925511</v>
+        <v>32.94747164076799</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>13.39753889136968</v>
+        <v>22.40267427271812</v>
       </c>
       <c r="J22">
-        <v>7.05500090763187</v>
+        <v>9.953027960627022</v>
       </c>
       <c r="K22">
-        <v>15.9608621335532</v>
+        <v>11.42826664389222</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.14117473083219</v>
+        <v>24.66916975431584</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.57575564985109</v>
+        <v>11.60811242429917</v>
       </c>
       <c r="C23">
-        <v>10.59891018465016</v>
+        <v>6.329054291990052</v>
       </c>
       <c r="D23">
-        <v>9.705292219581937</v>
+        <v>9.599181325311305</v>
       </c>
       <c r="E23">
-        <v>13.61089445348836</v>
+        <v>14.11867104681882</v>
       </c>
       <c r="F23">
-        <v>24.63867638931799</v>
+        <v>32.95606967884896</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>13.45907313873938</v>
+        <v>22.44004793243658</v>
       </c>
       <c r="J23">
-        <v>6.995783209684449</v>
+        <v>9.951007975181922</v>
       </c>
       <c r="K23">
-        <v>15.68749971114803</v>
+        <v>11.33199860085747</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.11572280794831</v>
+        <v>24.69731750783398</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.30509927852482</v>
+        <v>11.09299071637664</v>
       </c>
       <c r="C24">
-        <v>9.843813260328533</v>
+        <v>5.981242781484806</v>
       </c>
       <c r="D24">
-        <v>9.074485697282656</v>
+        <v>9.454908184606589</v>
       </c>
       <c r="E24">
-        <v>12.78529056004656</v>
+        <v>13.96379280231369</v>
       </c>
       <c r="F24">
-        <v>23.95181427703302</v>
+        <v>33.00299515837682</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>13.7212841952343</v>
+        <v>22.58939056247445</v>
       </c>
       <c r="J24">
-        <v>6.775169409596515</v>
+        <v>9.946091996177477</v>
       </c>
       <c r="K24">
-        <v>14.61000484141851</v>
+        <v>10.9614255201303</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.05626985278526</v>
+        <v>24.81343684114044</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.82136846587866</v>
+        <v>10.51237233999557</v>
       </c>
       <c r="C25">
-        <v>8.964571883155573</v>
+        <v>5.582541935349769</v>
       </c>
       <c r="D25">
-        <v>8.355223898373094</v>
+        <v>9.302428742950744</v>
       </c>
       <c r="E25">
-        <v>11.86026110581456</v>
+        <v>13.80522453907278</v>
       </c>
       <c r="F25">
-        <v>23.29326563832108</v>
+        <v>33.08421428527542</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>14.05960009894097</v>
+        <v>22.76710104908961</v>
       </c>
       <c r="J25">
-        <v>6.545592509268045</v>
+        <v>9.946664542727737</v>
       </c>
       <c r="K25">
-        <v>13.3571283263514</v>
+        <v>10.55103660575691</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.06453635800073</v>
+        <v>24.95891737582174</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_70/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_70/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.06655267360758</v>
+        <v>13.63020791406879</v>
       </c>
       <c r="C2">
-        <v>5.270437362646262</v>
+        <v>8.260820657988042</v>
       </c>
       <c r="D2">
-        <v>9.193505539851932</v>
+        <v>7.794185893496438</v>
       </c>
       <c r="E2">
-        <v>13.69638693630308</v>
+        <v>11.15304156053037</v>
       </c>
       <c r="F2">
-        <v>33.17022212974818</v>
+        <v>22.87713876475281</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>22.91223486194537</v>
+        <v>14.3503836372216</v>
       </c>
       <c r="J2">
-        <v>9.952164006458259</v>
+        <v>6.384337137486031</v>
       </c>
       <c r="K2">
-        <v>10.24193201029323</v>
+        <v>12.35640382866571</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.08334463714856</v>
+        <v>16.12630923223822</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.754891060528777</v>
+        <v>12.76083470861913</v>
       </c>
       <c r="C3">
-        <v>5.048455835676679</v>
+        <v>7.748526962107914</v>
       </c>
       <c r="D3">
-        <v>9.122094076288214</v>
+        <v>7.39580900598344</v>
       </c>
       <c r="E3">
-        <v>13.62785279992243</v>
+        <v>10.65990308111775</v>
       </c>
       <c r="F3">
-        <v>33.24478385495913</v>
+        <v>22.6366174236072</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>23.01950234982142</v>
+        <v>14.57081975649564</v>
       </c>
       <c r="J3">
-        <v>9.959068111991913</v>
+        <v>6.280198825206053</v>
       </c>
       <c r="K3">
-        <v>10.02936680492359</v>
+        <v>11.62955375887458</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.17842383260056</v>
+        <v>16.1996350755713</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.559559341184421</v>
+        <v>12.1962808005922</v>
       </c>
       <c r="C4">
-        <v>4.90745107283668</v>
+        <v>7.416533335833064</v>
       </c>
       <c r="D4">
-        <v>9.079538283194486</v>
+        <v>7.142909936230896</v>
       </c>
       <c r="E4">
-        <v>13.58844026337651</v>
+        <v>10.35132120189576</v>
       </c>
       <c r="F4">
-        <v>33.29856291471738</v>
+        <v>22.50881389786872</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>23.08975856074216</v>
+        <v>14.71692394940396</v>
       </c>
       <c r="J4">
-        <v>9.964876781477788</v>
+        <v>6.218889491675299</v>
       </c>
       <c r="K4">
-        <v>9.897778754030908</v>
+        <v>11.15943871932127</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.2420919059431</v>
+        <v>16.25910831047845</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.479081855602804</v>
+        <v>11.95847912949166</v>
       </c>
       <c r="C5">
-        <v>4.848885965622329</v>
+        <v>7.276865174430143</v>
       </c>
       <c r="D5">
-        <v>9.062536574309602</v>
+        <v>7.037887642048053</v>
       </c>
       <c r="E5">
-        <v>13.57306317562707</v>
+        <v>10.22429714362042</v>
       </c>
       <c r="F5">
-        <v>33.32248484553276</v>
+        <v>22.46163111860145</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>23.11949309941544</v>
+        <v>14.77906184365066</v>
       </c>
       <c r="J5">
-        <v>9.967638875806639</v>
+        <v>6.194580776716497</v>
       </c>
       <c r="K5">
-        <v>9.843956709547026</v>
+        <v>10.96191446528961</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.26936480419921</v>
+        <v>16.28682223007042</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.465669276293486</v>
+        <v>11.91852473529861</v>
       </c>
       <c r="C6">
-        <v>4.839097078100608</v>
+        <v>7.253409362838179</v>
       </c>
       <c r="D6">
-        <v>9.059734436339079</v>
+        <v>7.020334142350504</v>
       </c>
       <c r="E6">
-        <v>13.57055148619587</v>
+        <v>10.20313371115354</v>
       </c>
       <c r="F6">
-        <v>33.32657810903486</v>
+        <v>22.45408909107102</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>23.12449720394243</v>
+        <v>14.78953387251136</v>
       </c>
       <c r="J6">
-        <v>9.96812138542761</v>
+        <v>6.190585486493938</v>
       </c>
       <c r="K6">
-        <v>9.835009701338864</v>
+        <v>10.92875801491642</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.27397356552115</v>
+        <v>16.29162968723445</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.558477384161737</v>
+        <v>12.19310507250183</v>
       </c>
       <c r="C7">
-        <v>4.906665603393836</v>
+        <v>7.414667431983609</v>
       </c>
       <c r="D7">
-        <v>9.079307595065297</v>
+        <v>7.141501343693357</v>
       </c>
       <c r="E7">
-        <v>13.58823009723874</v>
+        <v>10.34961301298586</v>
       </c>
       <c r="F7">
-        <v>33.29887741635697</v>
+        <v>22.50815788440728</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>23.09015509908144</v>
+        <v>14.71775157113373</v>
       </c>
       <c r="J7">
-        <v>9.964912432268781</v>
+        <v>6.218558904688051</v>
       </c>
       <c r="K7">
-        <v>9.89705360111598</v>
+        <v>11.15679885509135</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.24245434534609</v>
+        <v>16.25946819062593</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.959985004558247</v>
+        <v>13.33682390944143</v>
       </c>
       <c r="C8">
-        <v>5.19491949056357</v>
+        <v>8.087804516310747</v>
       </c>
       <c r="D8">
-        <v>9.168624334731103</v>
+        <v>7.658613461807824</v>
       </c>
       <c r="E8">
-        <v>13.67221078280905</v>
+        <v>10.98431172163423</v>
       </c>
       <c r="F8">
-        <v>33.19426843697972</v>
+        <v>22.79002548335557</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>22.94830866967538</v>
+        <v>14.42409151495071</v>
       </c>
       <c r="J8">
-        <v>9.954219023890143</v>
+        <v>6.347892475529475</v>
       </c>
       <c r="K8">
-        <v>10.16890378237207</v>
+        <v>12.11075167157432</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.11502880654696</v>
+        <v>16.14849805003461</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.71102946378259</v>
+        <v>15.33641194893657</v>
       </c>
       <c r="C9">
-        <v>5.71985281713954</v>
+        <v>9.269464872700038</v>
       </c>
       <c r="D9">
-        <v>9.35331483096676</v>
+        <v>8.602550823375251</v>
       </c>
       <c r="E9">
-        <v>13.85744888539973</v>
+        <v>12.17619213307977</v>
       </c>
       <c r="F9">
-        <v>33.05277596353512</v>
+        <v>23.50426036688638</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>22.7050192566066</v>
+        <v>13.9387849264991</v>
       </c>
       <c r="J9">
-        <v>9.945684373866907</v>
+        <v>6.621756223560553</v>
       </c>
       <c r="K9">
-        <v>10.69051175024294</v>
+        <v>13.79131182166504</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.90721715727799</v>
+        <v>16.05266221489705</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.23490512677165</v>
+        <v>16.65881478285515</v>
       </c>
       <c r="C10">
-        <v>6.077566056409397</v>
+        <v>10.05382076922324</v>
       </c>
       <c r="D10">
-        <v>9.493850490543325</v>
+        <v>9.248826182636764</v>
       </c>
       <c r="E10">
-        <v>14.00519182248768</v>
+        <v>13.01222409876546</v>
       </c>
       <c r="F10">
-        <v>32.98784597866941</v>
+        <v>24.13168644861064</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>22.5475469721805</v>
+        <v>13.64543995469684</v>
       </c>
       <c r="J10">
-        <v>9.9469653252693</v>
+        <v>6.834414229449711</v>
       </c>
       <c r="K10">
-        <v>11.06294533393313</v>
+        <v>14.90956659180235</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.78032356280901</v>
+        <v>16.06640078817408</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.46612981514399</v>
+        <v>17.22900950881299</v>
       </c>
       <c r="C11">
-        <v>6.23367511151528</v>
+        <v>10.39266679668953</v>
       </c>
       <c r="D11">
-        <v>9.558621904290014</v>
+        <v>9.531941306032381</v>
       </c>
       <c r="E11">
-        <v>14.07472974900863</v>
+        <v>13.38279727606626</v>
       </c>
       <c r="F11">
-        <v>32.96681784052326</v>
+        <v>24.44007047878574</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>22.48053195891932</v>
+        <v>13.52771219189659</v>
       </c>
       <c r="J11">
-        <v>9.949179269264361</v>
+        <v>6.933456289336856</v>
       </c>
       <c r="K11">
-        <v>11.22929621004412</v>
+        <v>15.39309663917366</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.72822453086924</v>
+        <v>16.09308234658172</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.5525944584967</v>
+        <v>17.44045761326371</v>
       </c>
       <c r="C12">
-        <v>6.291800860592402</v>
+        <v>10.51841889000831</v>
       </c>
       <c r="D12">
-        <v>9.583251850736747</v>
+        <v>9.637549001757918</v>
       </c>
       <c r="E12">
-        <v>14.10137870078064</v>
+        <v>13.52165198701262</v>
       </c>
       <c r="F12">
-        <v>32.96008050384062</v>
+        <v>24.56018846666341</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>22.45582003356613</v>
+        <v>13.48557757607392</v>
       </c>
       <c r="J12">
-        <v>9.950251258860973</v>
+        <v>6.971277009578689</v>
       </c>
       <c r="K12">
-        <v>11.29179090915403</v>
+        <v>15.57259439859504</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.70930729869433</v>
+        <v>16.10630226023151</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.53402257552918</v>
+        <v>17.395116721304</v>
       </c>
       <c r="C13">
-        <v>6.27932698512241</v>
+        <v>10.49144947449893</v>
       </c>
       <c r="D13">
-        <v>9.577943091524189</v>
+        <v>9.614876218840138</v>
       </c>
       <c r="E13">
-        <v>14.09562559754217</v>
+        <v>13.49181363579128</v>
       </c>
       <c r="F13">
-        <v>32.96147697770386</v>
+        <v>24.53416985742421</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>22.46111258924813</v>
+        <v>13.49454007555233</v>
       </c>
       <c r="J13">
-        <v>9.950010012993699</v>
+        <v>6.963117835402459</v>
       </c>
       <c r="K13">
-        <v>11.27835460998392</v>
+        <v>15.53409635213965</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.7133453288598</v>
+        <v>16.10331369019236</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.47326566605264</v>
+        <v>17.24649486449266</v>
       </c>
       <c r="C14">
-        <v>6.238477176776802</v>
+        <v>10.40306369940576</v>
       </c>
       <c r="D14">
-        <v>9.560646278498673</v>
+        <v>9.540661994122933</v>
       </c>
       <c r="E14">
-        <v>14.07691593980333</v>
+        <v>13.39425081726284</v>
       </c>
       <c r="F14">
-        <v>32.96623898453694</v>
+        <v>24.44988553791389</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>22.47848555707295</v>
+        <v>13.52419559770523</v>
       </c>
       <c r="J14">
-        <v>9.949262786345065</v>
+        <v>6.936561581022377</v>
       </c>
       <c r="K14">
-        <v>11.23444799646943</v>
+        <v>15.40793616033401</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.72665191962943</v>
+        <v>16.09410648488263</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.43590557921996</v>
+        <v>17.15487849292366</v>
       </c>
       <c r="C15">
-        <v>6.213325619437503</v>
+        <v>10.34859196534964</v>
       </c>
       <c r="D15">
-        <v>9.550064268146594</v>
+        <v>9.494994104655866</v>
       </c>
       <c r="E15">
-        <v>14.0654963883063</v>
+        <v>13.33429705263947</v>
       </c>
       <c r="F15">
-        <v>32.96931550392762</v>
+        <v>24.39869486400979</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>22.48921365759119</v>
+        <v>13.54268485663728</v>
       </c>
       <c r="J15">
-        <v>9.948835481953559</v>
+        <v>6.92033577590169</v>
       </c>
       <c r="K15">
-        <v>11.20748734218701</v>
+        <v>15.33019053200949</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.73490835339014</v>
+        <v>16.08887790596313</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.21964473736893</v>
+        <v>16.62092316746203</v>
       </c>
       <c r="C16">
-        <v>6.067227445526068</v>
+        <v>10.03131669049254</v>
       </c>
       <c r="D16">
-        <v>9.489632868492686</v>
+        <v>9.23010157329119</v>
       </c>
       <c r="E16">
-        <v>14.0006926550553</v>
+        <v>12.98780364503465</v>
       </c>
       <c r="F16">
-        <v>32.98939162259336</v>
+        <v>24.11199830167461</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>22.55201959834846</v>
+        <v>13.65346555138053</v>
       </c>
       <c r="J16">
-        <v>9.94685338476561</v>
+        <v>6.827986584019532</v>
       </c>
       <c r="K16">
-        <v>11.05200714348522</v>
+        <v>14.87746139611998</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.78384178015087</v>
+        <v>16.06508345681895</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.08510351968689</v>
+        <v>16.28535008551707</v>
       </c>
       <c r="C17">
-        <v>5.975877426722946</v>
+        <v>9.83209220527209</v>
       </c>
       <c r="D17">
-        <v>9.452762420166385</v>
+        <v>9.064781985918017</v>
       </c>
       <c r="E17">
-        <v>13.96152121104679</v>
+        <v>12.7726888639277</v>
       </c>
       <c r="F17">
-        <v>33.00388861992102</v>
+        <v>23.94203012783909</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>22.59173288036369</v>
+        <v>13.72557870911385</v>
       </c>
       <c r="J17">
-        <v>9.946054591146575</v>
+        <v>6.771911762238076</v>
       </c>
       <c r="K17">
-        <v>10.95579664484885</v>
+        <v>14.59328850363803</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.81530354679398</v>
+        <v>16.05584618060746</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.00705570513319</v>
+        <v>16.08938175112385</v>
       </c>
       <c r="C18">
-        <v>5.922714400962869</v>
+        <v>9.715811419306402</v>
       </c>
       <c r="D18">
-        <v>9.431635791944146</v>
+        <v>8.968672047770578</v>
       </c>
       <c r="E18">
-        <v>13.93921118410238</v>
+        <v>12.64804673594831</v>
       </c>
       <c r="F18">
-        <v>33.01302772246023</v>
+        <v>23.84642881958358</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>22.61500970308259</v>
+        <v>13.76852345292162</v>
       </c>
       <c r="J18">
-        <v>9.94574875017927</v>
+        <v>6.739876633444992</v>
       </c>
       <c r="K18">
-        <v>10.90017303047828</v>
+        <v>14.4274693324817</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.83392886955228</v>
+        <v>16.05244561331241</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.98051858394347</v>
+        <v>16.0225214902669</v>
       </c>
       <c r="C19">
-        <v>5.904608924610306</v>
+        <v>9.676149529972429</v>
       </c>
       <c r="D19">
-        <v>9.42449702960071</v>
+        <v>8.935956588660622</v>
       </c>
       <c r="E19">
-        <v>13.9316957908078</v>
+        <v>12.60569060329587</v>
       </c>
       <c r="F19">
-        <v>33.01625953431844</v>
+        <v>23.81442955794316</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>22.62296548596984</v>
+        <v>13.78331037942063</v>
       </c>
       <c r="J19">
-        <v>9.945671606346032</v>
+        <v>6.7290679586389</v>
       </c>
       <c r="K19">
-        <v>10.88129253383486</v>
+        <v>14.37091834726442</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.84032591946333</v>
+        <v>16.05161727820173</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.09949488225773</v>
+        <v>16.3213780324734</v>
       </c>
       <c r="C20">
-        <v>5.985666347416675</v>
+        <v>9.853474978391466</v>
       </c>
       <c r="D20">
-        <v>9.456679167766913</v>
+        <v>9.082486668374299</v>
       </c>
       <c r="E20">
-        <v>13.96566840445379</v>
+        <v>12.79568335411802</v>
       </c>
       <c r="F20">
-        <v>33.0022624920574</v>
+        <v>23.95989969547286</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>22.58746032809987</v>
+        <v>13.71774899667669</v>
       </c>
       <c r="J20">
-        <v>9.946123733168118</v>
+        <v>6.777858615600597</v>
       </c>
       <c r="K20">
-        <v>10.96606843026927</v>
+        <v>14.62378443904126</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.81189958358443</v>
+        <v>16.05663028008738</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.49114172752392</v>
+        <v>17.29026975126901</v>
       </c>
       <c r="C21">
-        <v>6.250502880188249</v>
+        <v>10.42909407594558</v>
       </c>
       <c r="D21">
-        <v>9.565724140072327</v>
+        <v>9.562504229305798</v>
       </c>
       <c r="E21">
-        <v>14.08240298119606</v>
+        <v>13.42294785849103</v>
       </c>
       <c r="F21">
-        <v>32.96480699356679</v>
+        <v>24.47455098637518</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>22.47336463462053</v>
+        <v>13.51541709260459</v>
       </c>
       <c r="J21">
-        <v>9.949475932815336</v>
+        <v>6.944353347379282</v>
       </c>
       <c r="K21">
-        <v>11.24735840623868</v>
+        <v>15.4450901427708</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.72272140595803</v>
+        <v>16.09672487418767</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.7406928870684</v>
+        <v>17.89744958294231</v>
       </c>
       <c r="C22">
-        <v>6.417808458406126</v>
+        <v>10.79037618817813</v>
       </c>
       <c r="D22">
-        <v>9.637579688883022</v>
+        <v>9.866876691730841</v>
       </c>
       <c r="E22">
-        <v>14.16053135803728</v>
+        <v>13.82429226761734</v>
       </c>
       <c r="F22">
-        <v>32.94747164076799</v>
+        <v>24.83038418925508</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>22.40267427271812</v>
+        <v>13.39753889136963</v>
       </c>
       <c r="J22">
-        <v>9.953027960627022</v>
+        <v>7.055000907631885</v>
       </c>
       <c r="K22">
-        <v>11.42826664389222</v>
+        <v>15.96086213355321</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.66916975431584</v>
+        <v>16.14117473083219</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.60811242429917</v>
+        <v>17.57575564985114</v>
       </c>
       <c r="C23">
-        <v>6.329054291990052</v>
+        <v>10.59891018465021</v>
       </c>
       <c r="D23">
-        <v>9.599181325311305</v>
+        <v>9.705292219581938</v>
       </c>
       <c r="E23">
-        <v>14.11867104681882</v>
+        <v>13.61089445348836</v>
       </c>
       <c r="F23">
-        <v>32.95606967884896</v>
+        <v>24.63867638931793</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>22.44004793243658</v>
+        <v>13.45907313873933</v>
       </c>
       <c r="J23">
-        <v>9.951007975181922</v>
+        <v>6.99578320968441</v>
       </c>
       <c r="K23">
-        <v>11.33199860085747</v>
+        <v>15.68749971114811</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.69731750783398</v>
+        <v>16.11572280794818</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.09299071637664</v>
+        <v>16.30509927852483</v>
       </c>
       <c r="C24">
-        <v>5.981242781484806</v>
+        <v>9.843813260328437</v>
       </c>
       <c r="D24">
-        <v>9.454908184606589</v>
+        <v>9.074485697282643</v>
       </c>
       <c r="E24">
-        <v>13.96379280231369</v>
+        <v>12.78529056004656</v>
       </c>
       <c r="F24">
-        <v>33.00299515837682</v>
+        <v>23.95181427703289</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>22.58939056247445</v>
+        <v>13.7212841952341</v>
       </c>
       <c r="J24">
-        <v>9.946091996177477</v>
+        <v>6.775169409596524</v>
       </c>
       <c r="K24">
-        <v>10.9614255201303</v>
+        <v>14.6100048414185</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.81343684114044</v>
+        <v>16.05626985278512</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.51237233999557</v>
+        <v>14.82136846587873</v>
       </c>
       <c r="C25">
-        <v>5.582541935349769</v>
+        <v>8.964571883155489</v>
       </c>
       <c r="D25">
-        <v>9.302428742950744</v>
+        <v>8.355223898373099</v>
       </c>
       <c r="E25">
-        <v>13.80522453907278</v>
+        <v>11.86026110581454</v>
       </c>
       <c r="F25">
-        <v>33.08421428527542</v>
+        <v>23.2932656383209</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>22.76710104908961</v>
+        <v>14.05960009894075</v>
       </c>
       <c r="J25">
-        <v>9.946664542727737</v>
+        <v>6.545592509268026</v>
       </c>
       <c r="K25">
-        <v>10.55103660575691</v>
+        <v>13.35712832635143</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.95891737582174</v>
+        <v>16.06453635800057</v>
       </c>
     </row>
   </sheetData>
